--- a/html/resources/aoiConditions/train2P1Block11Test.xlsx
+++ b/html/resources/aoiConditions/train2P1Block11Test.xlsx
@@ -34,16 +34,16 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/22_egg.png</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/04_ladder.png</t>
+    <t>trainingaudio/26_kapako1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/26_pineapple.png</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/21_cheese.png</t>
   </si>
 </sst>
 </file>
@@ -441,10 +441,10 @@
         <v>9</v>
       </c>
       <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
         <v>-0.5</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/aoiConditions/train2P1Block11Test.xlsx
+++ b/html/resources/aoiConditions/train2P1Block11Test.xlsx
@@ -22,7 +22,7 @@
     <t>imageTrue</t>
   </si>
   <si>
-    <t>audioFalse</t>
+    <t>currentPhase</t>
   </si>
   <si>
     <t>imageFalse</t>
@@ -40,7 +40,7 @@
     <t>pngimages/26_pineapple.png</t>
   </si>
   <si>
-    <t>trainingaudio/21_papika1.wav</t>
+    <t>train2P1</t>
   </si>
   <si>
     <t>pngimages/21_cheese.png</t>
